--- a/application/numerai/documents/Results - 1.0.xlsx
+++ b/application/numerai/documents/Results - 1.0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projects\common_python\application\numerai\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -130,6 +135,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -177,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,7 +432,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -458,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
+        <f>D2</f>
         <v>0.02</v>
       </c>
       <c r="D2" s="2">
-        <f>C2</f>
         <v>0.02</v>
       </c>
     </row>
@@ -473,18 +481,28 @@
         <v>0.69118999999999997</v>
       </c>
       <c r="C3" s="2">
-        <v>4.7699999999999996</v>
+        <f>D3-C2</f>
+        <v>4.7700000000000005</v>
       </c>
       <c r="D3" s="2">
-        <f>D2+C3</f>
-        <v>4.7899999999999991</v>
+        <f>4.79</f>
+        <v>4.79</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>142</v>
+      </c>
       <c r="B4" s="4">
         <v>0.69128999999999996</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2">
+        <f>D4-C3</f>
+        <v>0.25999999999999979</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.03</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
